--- a/database/industries/darou/delor/cost/yearly.xlsx
+++ b/database/industries/darou/delor/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\delor\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\delor\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFACCAA-9371-4CFB-904F-33D4DC4CB494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9E958C-F03F-4AA9-B26D-9B196D54DE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -136,7 +136,7 @@
     <t>نرخ موجودی اول دوره</t>
   </si>
   <si>
-    <t>00 / ریال</t>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>نرخ خرید طی دوره</t>
@@ -638,12 +638,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -653,7 +653,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -687,7 +687,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,7 +699,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -721,7 +721,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -743,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -753,95 +753,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1599707</v>
+        <v>2215612</v>
       </c>
       <c r="F10" s="9">
-        <v>2215612</v>
+        <v>3070719</v>
       </c>
       <c r="G10" s="9">
-        <v>3070719</v>
+        <v>4397032</v>
       </c>
       <c r="H10" s="9">
-        <v>4397032</v>
+        <v>8101856</v>
       </c>
       <c r="I10" s="9">
-        <v>8101856</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10909153</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>154866</v>
+        <v>185365</v>
       </c>
       <c r="F11" s="11">
-        <v>185365</v>
+        <v>304006</v>
       </c>
       <c r="G11" s="11">
-        <v>304006</v>
+        <v>464956</v>
       </c>
       <c r="H11" s="11">
-        <v>464956</v>
+        <v>682225</v>
       </c>
       <c r="I11" s="11">
-        <v>682225</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1135064</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>305055</v>
+        <v>354701</v>
       </c>
       <c r="F12" s="9">
-        <v>354701</v>
+        <v>498733</v>
       </c>
       <c r="G12" s="9">
-        <v>498733</v>
+        <v>801928</v>
       </c>
       <c r="H12" s="9">
-        <v>801928</v>
+        <v>1248925</v>
       </c>
       <c r="I12" s="9">
-        <v>1248925</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1849641</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>2059628</v>
+        <v>2755678</v>
       </c>
       <c r="F13" s="13">
-        <v>2755678</v>
+        <v>3873458</v>
       </c>
       <c r="G13" s="13">
-        <v>3873458</v>
+        <v>5663916</v>
       </c>
       <c r="H13" s="13">
-        <v>5663916</v>
+        <v>10033006</v>
       </c>
       <c r="I13" s="13">
-        <v>10033006</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13893858</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -863,51 +863,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>2059628</v>
+        <v>2755678</v>
       </c>
       <c r="F15" s="13">
-        <v>2755678</v>
+        <v>3873458</v>
       </c>
       <c r="G15" s="13">
-        <v>3873458</v>
+        <v>5663916</v>
       </c>
       <c r="H15" s="13">
-        <v>5663916</v>
+        <v>10033006</v>
       </c>
       <c r="I15" s="13">
-        <v>10033006</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13893858</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>66419</v>
+        <v>-14108</v>
       </c>
       <c r="F16" s="9">
-        <v>-14108</v>
+        <v>-56538</v>
       </c>
       <c r="G16" s="9">
-        <v>-56538</v>
+        <v>-83223</v>
       </c>
       <c r="H16" s="9">
-        <v>-83223</v>
+        <v>-232960</v>
       </c>
       <c r="I16" s="9">
-        <v>-232960</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-161395</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>0</v>
+        <v>-2758</v>
       </c>
       <c r="G17" s="11">
-        <v>-2758</v>
+        <v>0</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
@@ -929,95 +929,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>2126047</v>
+        <v>2741570</v>
       </c>
       <c r="F18" s="15">
-        <v>2741570</v>
+        <v>3814162</v>
       </c>
       <c r="G18" s="15">
-        <v>3814162</v>
+        <v>5580693</v>
       </c>
       <c r="H18" s="15">
-        <v>5580693</v>
+        <v>9800046</v>
       </c>
       <c r="I18" s="15">
-        <v>9800046</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13732463</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>273142</v>
+        <v>236455</v>
       </c>
       <c r="F19" s="11">
-        <v>236455</v>
+        <v>525796</v>
       </c>
       <c r="G19" s="11">
-        <v>525796</v>
+        <v>545555</v>
       </c>
       <c r="H19" s="11">
-        <v>545555</v>
+        <v>1110049</v>
       </c>
       <c r="I19" s="11">
-        <v>1110049</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>972477</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-236455</v>
+        <v>-525796</v>
       </c>
       <c r="F20" s="9">
-        <v>-525796</v>
+        <v>-545555</v>
       </c>
       <c r="G20" s="9">
-        <v>-545555</v>
+        <v>-1110049</v>
       </c>
       <c r="H20" s="9">
-        <v>-1110049</v>
+        <v>-972477</v>
       </c>
       <c r="I20" s="9">
-        <v>-972477</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1295492</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>2162734</v>
+        <v>2452229</v>
       </c>
       <c r="F21" s="13">
-        <v>2452229</v>
+        <v>3794403</v>
       </c>
       <c r="G21" s="13">
-        <v>3794403</v>
+        <v>5016199</v>
       </c>
       <c r="H21" s="13">
-        <v>5016199</v>
+        <v>9937618</v>
       </c>
       <c r="I21" s="13">
-        <v>9937618</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13409448</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1039,29 +1039,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>2162734</v>
+        <v>2452229</v>
       </c>
       <c r="F23" s="13">
-        <v>2452229</v>
+        <v>3794403</v>
       </c>
       <c r="G23" s="13">
-        <v>3794403</v>
+        <v>5016199</v>
       </c>
       <c r="H23" s="13">
-        <v>5016199</v>
+        <v>9937618</v>
       </c>
       <c r="I23" s="13">
-        <v>9937618</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13409448</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1071,7 +1071,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1081,7 +1081,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1091,7 +1091,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1123,7 +1123,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1137,41 +1137,39 @@
       <c r="F29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="11">
-        <v>0</v>
-      </c>
+      <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>1</v>
       </c>
       <c r="F30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="11">
         <v>0</v>
       </c>
       <c r="H30" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1185,39 +1183,39 @@
       <c r="F31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0</v>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="13">
         <v>0</v>
       </c>
       <c r="H32" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1227,7 +1225,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1237,7 +1235,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1247,7 +1245,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>29</v>
       </c>
@@ -1269,7 +1267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1279,7 +1277,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>24</v>
       </c>
@@ -1293,41 +1291,39 @@
       <c r="F38" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0</v>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="11">
-        <v>0</v>
-      </c>
+      <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>26</v>
+      <c r="E39" s="11">
+        <v>3</v>
       </c>
       <c r="F39" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G39" s="11">
         <v>0</v>
       </c>
       <c r="H39" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
@@ -1341,39 +1337,39 @@
       <c r="F40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41" s="13">
         <v>0</v>
       </c>
       <c r="H41" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1383,7 +1379,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1393,7 +1389,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1403,7 +1399,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>31</v>
       </c>
@@ -1425,7 +1421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1435,7 +1431,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>24</v>
       </c>
@@ -1449,41 +1445,39 @@
       <c r="F47" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="9">
-        <v>0</v>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="11">
-        <v>0</v>
-      </c>
+      <c r="C48" s="11"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>26</v>
+      <c r="E48" s="11">
+        <v>2</v>
       </c>
       <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
         <v>2</v>
-      </c>
-      <c r="G48" s="11">
-        <v>0</v>
-      </c>
-      <c r="H48" s="11">
-        <v>0</v>
       </c>
       <c r="I48" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>28</v>
       </c>
@@ -1497,39 +1491,39 @@
       <c r="F49" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" s="9">
-        <v>0</v>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" s="13">
+        <v>0</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0</v>
+      </c>
+      <c r="H50" s="13">
         <v>2</v>
-      </c>
-      <c r="G50" s="13">
-        <v>0</v>
-      </c>
-      <c r="H50" s="13">
-        <v>0</v>
       </c>
       <c r="I50" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1539,7 +1533,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1549,7 +1543,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1559,7 +1553,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>32</v>
       </c>
@@ -1581,7 +1575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1591,7 +1585,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>24</v>
       </c>
@@ -1605,41 +1599,39 @@
       <c r="F56" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0</v>
+      <c r="G56" s="9">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="11">
-        <v>0</v>
-      </c>
+      <c r="C57" s="11"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>26</v>
+      <c r="E57" s="11">
+        <v>2</v>
       </c>
       <c r="F57" s="11">
+        <v>0</v>
+      </c>
+      <c r="G57" s="11">
+        <v>0</v>
+      </c>
+      <c r="H57" s="11">
         <v>2</v>
-      </c>
-      <c r="G57" s="11">
-        <v>0</v>
-      </c>
-      <c r="H57" s="11">
-        <v>0</v>
       </c>
       <c r="I57" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>28</v>
       </c>
@@ -1653,39 +1645,39 @@
       <c r="F58" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" s="9">
-        <v>0</v>
+      <c r="G58" s="9">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59" s="13">
+        <v>0</v>
+      </c>
+      <c r="G59" s="13">
+        <v>0</v>
+      </c>
+      <c r="H59" s="13">
         <v>2</v>
-      </c>
-      <c r="G59" s="13">
-        <v>0</v>
-      </c>
-      <c r="H59" s="13">
-        <v>0</v>
       </c>
       <c r="I59" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1695,7 +1687,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1705,7 +1697,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1715,7 +1707,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>33</v>
       </c>
@@ -1737,7 +1729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1747,7 +1739,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>24</v>
       </c>
@@ -1761,17 +1753,17 @@
       <c r="F65" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G65" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="9">
-        <v>0</v>
+      <c r="G65" s="9">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>27</v>
       </c>
@@ -1779,23 +1771,23 @@
         <v>25</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>26</v>
+      <c r="E66" s="11">
+        <v>483016</v>
       </c>
       <c r="F66" s="11">
-        <v>483016</v>
+        <v>791833</v>
       </c>
       <c r="G66" s="11">
-        <v>791833</v>
+        <v>1475856</v>
       </c>
       <c r="H66" s="11">
-        <v>1475856</v>
+        <v>2312209</v>
       </c>
       <c r="I66" s="11">
-        <v>2312209</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4082209</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>28</v>
       </c>
@@ -1809,39 +1801,39 @@
       <c r="F67" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G67" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="9">
-        <v>0</v>
+      <c r="G67" s="9">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>0</v>
+        <v>483016</v>
       </c>
       <c r="F68" s="13">
-        <v>483016</v>
+        <v>791833</v>
       </c>
       <c r="G68" s="13">
-        <v>791833</v>
+        <v>1475856</v>
       </c>
       <c r="H68" s="13">
-        <v>1475856</v>
+        <v>2312209</v>
       </c>
       <c r="I68" s="13">
-        <v>2312209</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4082209</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1851,7 +1843,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1861,7 +1853,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1871,7 +1863,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>34</v>
       </c>
@@ -1893,7 +1885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1903,7 +1895,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>24</v>
       </c>
@@ -1917,17 +1909,17 @@
       <c r="F74" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" s="9">
-        <v>0</v>
+      <c r="G74" s="9">
+        <v>0</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>27</v>
       </c>
@@ -1935,23 +1927,23 @@
         <v>25</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
-        <v>26</v>
+      <c r="E75" s="11">
+        <v>2524429</v>
       </c>
       <c r="F75" s="11">
-        <v>2524429</v>
+        <v>3759621</v>
       </c>
       <c r="G75" s="11">
-        <v>3759621</v>
+        <v>5233386</v>
       </c>
       <c r="H75" s="11">
-        <v>5233386</v>
+        <v>9871856</v>
       </c>
       <c r="I75" s="11">
-        <v>9871856</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14136192</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>28</v>
       </c>
@@ -1965,39 +1957,39 @@
       <c r="F76" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G76" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="9">
-        <v>0</v>
+      <c r="G76" s="9">
+        <v>0</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>0</v>
+        <v>2524429</v>
       </c>
       <c r="F77" s="13">
-        <v>2524429</v>
+        <v>3759621</v>
       </c>
       <c r="G77" s="13">
-        <v>3759621</v>
+        <v>5233386</v>
       </c>
       <c r="H77" s="13">
-        <v>5233386</v>
+        <v>9871856</v>
       </c>
       <c r="I77" s="13">
-        <v>9871856</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14136192</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2007,7 +1999,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2017,7 +2009,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2027,7 +2019,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>35</v>
       </c>
@@ -2049,7 +2041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2059,7 +2051,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>24</v>
       </c>
@@ -2073,17 +2065,17 @@
       <c r="F83" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H83" s="9">
-        <v>0</v>
+      <c r="G83" s="9">
+        <v>0</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>27</v>
       </c>
@@ -2091,23 +2083,23 @@
         <v>25</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>26</v>
+      <c r="E84" s="11">
+        <v>2215612</v>
       </c>
       <c r="F84" s="11">
-        <v>2215612</v>
+        <v>3070719</v>
       </c>
       <c r="G84" s="11">
-        <v>3070719</v>
+        <v>4397032</v>
       </c>
       <c r="H84" s="11">
-        <v>4397032</v>
+        <v>8101856</v>
       </c>
       <c r="I84" s="11">
-        <v>8101856</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10909153</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>28</v>
       </c>
@@ -2121,39 +2113,39 @@
       <c r="F85" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" s="9">
-        <v>0</v>
+      <c r="G85" s="9">
+        <v>0</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>0</v>
+        <v>2215612</v>
       </c>
       <c r="F86" s="13">
-        <v>2215612</v>
+        <v>3070719</v>
       </c>
       <c r="G86" s="13">
-        <v>3070719</v>
+        <v>4397032</v>
       </c>
       <c r="H86" s="13">
-        <v>4397032</v>
+        <v>8101856</v>
       </c>
       <c r="I86" s="13">
-        <v>8101856</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10909153</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2163,7 +2155,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2173,7 +2165,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2183,7 +2175,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>36</v>
       </c>
@@ -2205,7 +2197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2215,7 +2207,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>24</v>
       </c>
@@ -2229,17 +2221,17 @@
       <c r="F92" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G92" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" s="9">
-        <v>0</v>
+      <c r="G92" s="9">
+        <v>0</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>27</v>
       </c>
@@ -2247,23 +2239,23 @@
         <v>25</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
-        <v>26</v>
+      <c r="E93" s="11">
+        <v>791833</v>
       </c>
       <c r="F93" s="11">
-        <v>791833</v>
+        <v>1480735</v>
       </c>
       <c r="G93" s="11">
-        <v>1480735</v>
+        <v>2312210</v>
       </c>
       <c r="H93" s="11">
-        <v>2312210</v>
+        <v>4082209</v>
       </c>
       <c r="I93" s="11">
-        <v>4082209</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7309248</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>28</v>
       </c>
@@ -2277,39 +2269,39 @@
       <c r="F94" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G94" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H94" s="9">
-        <v>0</v>
+      <c r="G94" s="9">
+        <v>0</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>0</v>
+        <v>791833</v>
       </c>
       <c r="F95" s="13">
-        <v>791833</v>
+        <v>1480735</v>
       </c>
       <c r="G95" s="13">
-        <v>1480735</v>
+        <v>2312210</v>
       </c>
       <c r="H95" s="13">
-        <v>2312210</v>
+        <v>4082209</v>
       </c>
       <c r="I95" s="13">
-        <v>4082209</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7309248</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2319,7 +2311,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2329,7 +2321,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2339,7 +2331,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>37</v>
       </c>
@@ -2361,7 +2353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2371,7 +2363,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>27</v>
       </c>
@@ -2379,23 +2371,23 @@
         <v>38</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F101" s="9">
+      <c r="E101" s="9">
         <v>483016000000</v>
       </c>
+      <c r="F101" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G101" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H101" s="9" t="s">
-        <v>26</v>
+      <c r="H101" s="9">
+        <v>1156104500000</v>
       </c>
       <c r="I101" s="9">
-        <v>1156104500000</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2041104500000</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2405,7 +2397,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2415,7 +2407,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2425,7 +2417,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>39</v>
       </c>
@@ -2447,7 +2439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2457,7 +2449,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>27</v>
       </c>
@@ -2465,23 +2457,23 @@
         <v>38</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F107" s="9">
+      <c r="E107" s="9">
         <v>841476333333</v>
       </c>
+      <c r="F107" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G107" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H107" s="9" t="s">
-        <v>26</v>
+      <c r="H107" s="9">
+        <v>4935928000000</v>
       </c>
       <c r="I107" s="9">
-        <v>4935928000000</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7068096000000</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2491,7 +2483,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2501,7 +2493,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2511,7 +2503,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>40</v>
       </c>
@@ -2533,7 +2525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2543,7 +2535,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>27</v>
       </c>
@@ -2551,23 +2543,23 @@
         <v>38</v>
       </c>
       <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F113" s="9">
+      <c r="E113" s="9">
         <v>1107806000000</v>
       </c>
+      <c r="F113" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G113" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H113" s="9" t="s">
-        <v>26</v>
+      <c r="H113" s="9">
+        <v>4050928000000</v>
       </c>
       <c r="I113" s="9">
-        <v>4050928000000</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5454576500000</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2577,7 +2569,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2587,7 +2579,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2597,7 +2589,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>41</v>
       </c>
@@ -2619,7 +2611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2629,31 +2621,29 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C119" s="9">
-        <v>0</v>
-      </c>
+      <c r="C119" s="9"/>
       <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="9">
+      <c r="E119" s="9">
         <v>395916500000</v>
       </c>
+      <c r="F119" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G119" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H119" s="9" t="s">
-        <v>26</v>
+      <c r="H119" s="9">
+        <v>2041104500000</v>
       </c>
       <c r="I119" s="9">
-        <v>2041104500000</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3654624000000</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2663,7 +2653,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2673,7 +2663,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2683,7 +2673,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>42</v>
       </c>
@@ -2705,7 +2695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2715,29 +2705,29 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>7108</v>
+        <v>10194</v>
       </c>
       <c r="F125" s="9">
-        <v>10194</v>
+        <v>20414</v>
       </c>
       <c r="G125" s="9">
-        <v>20414</v>
+        <v>28974</v>
       </c>
       <c r="H125" s="9">
-        <v>28974</v>
+        <v>51222</v>
       </c>
       <c r="I125" s="9">
-        <v>51222</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>71468</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>44</v>
       </c>
@@ -2759,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>45</v>
       </c>
@@ -2781,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>46</v>
       </c>
@@ -2803,95 +2793,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>20176</v>
+        <v>14134</v>
       </c>
       <c r="F129" s="9">
-        <v>14134</v>
+        <v>22831</v>
       </c>
       <c r="G129" s="9">
-        <v>22831</v>
+        <v>60490</v>
       </c>
       <c r="H129" s="9">
-        <v>60490</v>
+        <v>95486</v>
       </c>
       <c r="I129" s="9">
-        <v>95486</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>107073</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>12200</v>
+        <v>14868</v>
       </c>
       <c r="F130" s="11">
-        <v>14868</v>
+        <v>19153</v>
       </c>
       <c r="G130" s="11">
-        <v>19153</v>
+        <v>22104</v>
       </c>
       <c r="H130" s="11">
-        <v>22104</v>
+        <v>48841</v>
       </c>
       <c r="I130" s="11">
-        <v>48841</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>50943</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
-        <v>34976</v>
+        <v>25451</v>
       </c>
       <c r="F131" s="9">
-        <v>25451</v>
+        <v>31501</v>
       </c>
       <c r="G131" s="9">
-        <v>31501</v>
+        <v>40826</v>
       </c>
       <c r="H131" s="9">
-        <v>40826</v>
+        <v>75434</v>
       </c>
       <c r="I131" s="9">
-        <v>75434</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+        <v>130208</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
-        <v>159086</v>
+        <v>187899</v>
       </c>
       <c r="F132" s="11">
-        <v>187899</v>
+        <v>244774</v>
       </c>
       <c r="G132" s="11">
-        <v>244774</v>
+        <v>341808</v>
       </c>
       <c r="H132" s="11">
-        <v>341808</v>
+        <v>541995</v>
       </c>
       <c r="I132" s="11">
-        <v>541995</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+        <v>853902</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>51</v>
       </c>
@@ -2913,48 +2903,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>71509</v>
+        <v>102155</v>
       </c>
       <c r="F134" s="11">
-        <v>102155</v>
+        <v>160060</v>
       </c>
       <c r="G134" s="11">
-        <v>160060</v>
+        <v>307726</v>
       </c>
       <c r="H134" s="11">
-        <v>307726</v>
+        <v>435947</v>
       </c>
       <c r="I134" s="11">
-        <v>435947</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>636047</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
-        <v>305055</v>
+        <v>354701</v>
       </c>
       <c r="F135" s="15">
-        <v>354701</v>
+        <v>498733</v>
       </c>
       <c r="G135" s="15">
-        <v>498733</v>
+        <v>801928</v>
       </c>
       <c r="H135" s="15">
-        <v>801928</v>
+        <v>1248925</v>
       </c>
       <c r="I135" s="15">
-        <v>1248925</v>
+        <v>1849641</v>
       </c>
     </row>
   </sheetData>
